--- a/NformTester/NformTester/keywordscripts/TST1057_Login.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1057_Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3691,18 +3691,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.203.10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"SingleManual"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.100.67"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ABC GXT UPS"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3726,16 +3718,24 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"UPS_126.4.203.10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"AllDel"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SingleAuto_1$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SingleManual_1$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SingleAuto_1_NAME$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4666,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5565,7 +5565,7 @@
         <v>791</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>807</v>
@@ -5596,7 +5596,7 @@
         <v>791</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>808</v>
@@ -5673,7 +5673,7 @@
         <v>813</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5697,22 +5697,22 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="11"/>
@@ -5728,14 +5728,14 @@
         <v>572</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5755,11 +5755,11 @@
         <v>572</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
